--- a/数据库表设计.xlsx
+++ b/数据库表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19215" windowHeight="7575"/>
+    <workbookView windowWidth="21495" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="iptvyw01库" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716">
   <si>
     <t>数据库名</t>
   </si>
@@ -1859,6 +1859,81 @@
   </si>
   <si>
     <t>BIGINT not null</t>
+  </si>
+  <si>
+    <t>tusrsinippoolnum</t>
+  </si>
+  <si>
+    <t>储存中兴华为平台IP地址段中的用户数量</t>
+  </si>
+  <si>
+    <t>nocipstart</t>
+  </si>
+  <si>
+    <t>nocipend</t>
+  </si>
+  <si>
+    <t>nocquju</t>
+  </si>
+  <si>
+    <t>popipstart</t>
+  </si>
+  <si>
+    <t>popipend</t>
+  </si>
+  <si>
+    <t>popname</t>
+  </si>
+  <si>
+    <t>usrsnum</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>ipfield</t>
+  </si>
+  <si>
+    <t>daylen</t>
+  </si>
+  <si>
+    <t>NOC ip地址段开始</t>
+  </si>
+  <si>
+    <t>NOC ip地址段结束</t>
+  </si>
+  <si>
+    <t>NOC IP段所属区局</t>
+  </si>
+  <si>
+    <t>平台ip地址段开始</t>
+  </si>
+  <si>
+    <t>平台ip地址段结束</t>
+  </si>
+  <si>
+    <t>POP节点唯一ID</t>
+  </si>
+  <si>
+    <t>POP节点名字</t>
+  </si>
+  <si>
+    <t>用户数量</t>
+  </si>
+  <si>
+    <t>平台</t>
+  </si>
+  <si>
+    <t>IP地址段落</t>
+  </si>
+  <si>
+    <t>时间长度</t>
+  </si>
+  <si>
+    <t>BIGINT not null DEFAULT 0</t>
+  </si>
+  <si>
+    <t>int unsigned not null default 999</t>
   </si>
   <si>
     <t>浦东</t>
@@ -2576,8 +2651,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2596,10 +2671,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2613,30 +2688,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2657,31 +2708,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2704,7 +2747,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2719,21 +2800,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2754,25 +2829,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2784,85 +2859,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2880,13 +2889,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2898,7 +2979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2910,31 +2997,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2948,27 +3023,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2978,7 +3036,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2994,30 +3052,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3039,163 +3073,204 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3539,10 +3614,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AX185"/>
+  <dimension ref="A1:AX191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="G185" sqref="G185"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -10919,30 +10994,30 @@
       <c r="L183" t="s">
         <v>440</v>
       </c>
-      <c r="M183" s="5" t="s">
+      <c r="M183" t="s">
         <v>16</v>
       </c>
-      <c r="N183" s="5" t="s">
+      <c r="N183" t="s">
         <v>22</v>
       </c>
-      <c r="O183" s="5" t="s">
+      <c r="O183" t="s">
         <v>23</v>
       </c>
-      <c r="P183" s="5" t="s">
+      <c r="P183" t="s">
         <v>24</v>
       </c>
-      <c r="Q183" s="5" t="s">
+      <c r="Q183" t="s">
         <v>25</v>
       </c>
-      <c r="R183" s="5" t="s">
+      <c r="R183" t="s">
         <v>26</v>
       </c>
-      <c r="S183" s="5" t="s">
+      <c r="S183" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="184" spans="1:19">
-      <c r="A184" s="5" t="s">
+      <c r="A184" t="s">
         <v>74</v>
       </c>
       <c r="B184" t="s">
@@ -10954,10 +11029,10 @@
       <c r="D184" t="s">
         <v>443</v>
       </c>
-      <c r="E184" s="5" t="s">
+      <c r="E184" t="s">
         <v>400</v>
       </c>
-      <c r="F184" s="5" t="s">
+      <c r="F184" t="s">
         <v>401</v>
       </c>
       <c r="G184" t="s">
@@ -10978,30 +11053,30 @@
       <c r="L184" t="s">
         <v>448</v>
       </c>
-      <c r="M184" s="5" t="s">
+      <c r="M184" t="s">
         <v>38</v>
       </c>
-      <c r="N184" s="5" t="s">
+      <c r="N184" t="s">
         <v>44</v>
       </c>
-      <c r="O184" s="5" t="s">
+      <c r="O184" t="s">
         <v>45</v>
       </c>
-      <c r="P184" s="5" t="s">
+      <c r="P184" t="s">
         <v>46</v>
       </c>
-      <c r="Q184" s="5" t="s">
+      <c r="Q184" t="s">
         <v>47</v>
       </c>
-      <c r="R184" s="5" t="s">
+      <c r="R184" t="s">
         <v>48</v>
       </c>
-      <c r="S184" s="5" t="s">
+      <c r="S184" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="185" spans="1:19">
-      <c r="A185" s="5" t="s">
+      <c r="A185" t="s">
         <v>426</v>
       </c>
       <c r="B185" t="s">
@@ -11013,13 +11088,13 @@
       <c r="D185" t="s">
         <v>451</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E185" t="s">
         <v>184</v>
       </c>
-      <c r="F185" s="5" t="s">
+      <c r="F185" t="s">
         <v>184</v>
       </c>
-      <c r="G185" s="5" t="s">
+      <c r="G185" t="s">
         <v>452</v>
       </c>
       <c r="H185" t="s">
@@ -11037,25 +11112,220 @@
       <c r="L185" t="s">
         <v>184</v>
       </c>
-      <c r="M185" s="5" t="s">
+      <c r="M185" t="s">
         <v>55</v>
       </c>
-      <c r="N185" s="5" t="s">
+      <c r="N185" t="s">
         <v>55</v>
       </c>
-      <c r="O185" s="5" t="s">
+      <c r="O185" t="s">
         <v>55</v>
       </c>
-      <c r="P185" s="5" t="s">
+      <c r="P185" t="s">
         <v>52</v>
       </c>
-      <c r="Q185" s="5" t="s">
+      <c r="Q185" t="s">
         <v>52</v>
       </c>
-      <c r="R185" s="5" t="s">
+      <c r="R185" t="s">
         <v>52</v>
       </c>
-      <c r="S185" s="5" t="s">
+      <c r="S185" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C187" s="5"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C188" s="5"/>
+    </row>
+    <row r="189" spans="1:19">
+      <c r="A189" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D189" t="s">
+        <v>459</v>
+      </c>
+      <c r="E189" t="s">
+        <v>460</v>
+      </c>
+      <c r="F189" t="s">
+        <v>461</v>
+      </c>
+      <c r="G189" t="s">
+        <v>6</v>
+      </c>
+      <c r="H189" t="s">
+        <v>462</v>
+      </c>
+      <c r="I189" t="s">
+        <v>463</v>
+      </c>
+      <c r="J189" t="s">
+        <v>464</v>
+      </c>
+      <c r="K189" t="s">
+        <v>465</v>
+      </c>
+      <c r="L189" t="s">
+        <v>466</v>
+      </c>
+      <c r="M189" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N189" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O189" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P189" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q189" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R189" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S189" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19">
+      <c r="A190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D190" t="s">
+        <v>469</v>
+      </c>
+      <c r="E190" t="s">
+        <v>470</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G190" t="s">
+        <v>472</v>
+      </c>
+      <c r="H190" t="s">
+        <v>473</v>
+      </c>
+      <c r="I190" t="s">
+        <v>474</v>
+      </c>
+      <c r="J190" t="s">
+        <v>475</v>
+      </c>
+      <c r="K190" t="s">
+        <v>476</v>
+      </c>
+      <c r="L190" t="s">
+        <v>477</v>
+      </c>
+      <c r="M190" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N190" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O190" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P190" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q190" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R190" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S190" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
+      <c r="A191" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I191" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="J191" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K191" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="L191" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="M191" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N191" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O191" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P191" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q191" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R191" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S191" s="5" t="s">
         <v>429</v>
       </c>
     </row>
@@ -11122,13 +11392,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="E2" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11154,13 +11424,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="F3" s="1">
         <v>1000</v>
@@ -11186,13 +11456,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D4" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="E4" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -11218,13 +11488,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="F5" s="1">
         <v>12</v>
@@ -11250,13 +11520,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="F6" s="1">
         <v>12</v>
@@ -11282,13 +11552,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D7" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="E7" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="F7">
         <v>6.9</v>
@@ -11314,13 +11584,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D8" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="E8" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="F8">
         <v>8.6</v>
@@ -11346,13 +11616,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D9" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="E9" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="F9">
         <v>7.5</v>
@@ -11378,13 +11648,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D10" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="E10" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="F10">
         <v>7.5</v>
@@ -11410,13 +11680,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D11" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="E11" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -11442,13 +11712,13 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D12" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="E12" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="F12">
         <v>24</v>
@@ -11474,13 +11744,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -11506,13 +11776,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -11538,13 +11808,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="F15" s="1">
         <v>12</v>
@@ -11570,13 +11840,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="F16" s="1">
         <v>12</v>
@@ -11602,13 +11872,13 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D17" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="E17" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -11634,13 +11904,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D18" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="E18" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="F18">
         <v>9.5</v>
@@ -11666,13 +11936,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D19" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="E19" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="F19">
         <v>11.8</v>
@@ -11698,13 +11968,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D20" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="E20" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="F20">
         <v>11.8</v>
@@ -11730,13 +12000,13 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D21" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="E21" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="F21">
         <v>4.2</v>
@@ -11762,13 +12032,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="D22" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="E22" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -11794,13 +12064,13 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="D23" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="E23" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="F23">
         <v>11.9</v>
@@ -11826,13 +12096,13 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="D24" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="E24" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="F24">
         <v>11.9</v>
@@ -11858,13 +12128,13 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="D25" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="E25" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="F25">
         <v>12.9</v>
@@ -11890,13 +12160,13 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="D26" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="E26" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="F26">
         <v>4.3</v>
@@ -11922,13 +12192,13 @@
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="D27" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="E27" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="F27">
         <v>4.3</v>
@@ -11954,13 +12224,13 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="D28" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="E28" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="F28">
         <v>24</v>
@@ -11986,13 +12256,13 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="D29" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="E29" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="F29">
         <v>24</v>
@@ -12018,13 +12288,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="D30" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="E30" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -12050,13 +12320,13 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="D31" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="E31" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="F31">
         <v>11.5</v>
@@ -12082,13 +12352,13 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="D32" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="E32" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="F32">
         <v>7.7</v>
@@ -12114,13 +12384,13 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="D33" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="E33" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="F33">
         <v>11.3</v>
@@ -12146,13 +12416,13 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="D34" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="E34" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="F34">
         <v>11.3</v>
@@ -12178,13 +12448,13 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="D35" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="E35" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="F35">
         <v>8.2</v>
@@ -12210,13 +12480,13 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="D36" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="E36" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="F36">
         <v>8.2</v>
@@ -12242,13 +12512,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="D37" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E37" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -12274,13 +12544,13 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="D38" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="E38" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="F38">
         <v>9.8</v>
@@ -12306,13 +12576,13 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="D39" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="E39" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="F39">
         <v>24</v>
@@ -12338,13 +12608,13 @@
         <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="F40" s="2">
         <v>1000</v>
@@ -12370,13 +12640,13 @@
         <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="F41" s="2">
         <v>1000</v>
@@ -12402,13 +12672,13 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D42" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="E42" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -12434,13 +12704,13 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D43" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="E43" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="F43">
         <v>12.5</v>
@@ -12466,13 +12736,13 @@
         <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D44" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="E44" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="F44">
         <v>4.9</v>
@@ -12498,13 +12768,13 @@
         <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="F45" s="2">
         <v>1000</v>
@@ -12530,13 +12800,13 @@
         <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="F46" s="2">
         <v>1000</v>
@@ -12562,13 +12832,13 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="D47" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="E47" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -12594,13 +12864,13 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="D48" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="E48" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="F48">
         <v>5.5</v>
@@ -12626,13 +12896,13 @@
         <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="D49" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="E49" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="F49">
         <v>7.3</v>
@@ -12658,13 +12928,13 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="D50" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="E50" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="F50">
         <v>19</v>
@@ -12690,13 +12960,13 @@
         <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="D51" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="E51" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="F51">
         <v>19</v>
@@ -12722,13 +12992,13 @@
         <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="D52" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="E52" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -12754,13 +13024,13 @@
         <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="F53" s="2">
         <v>1000</v>
@@ -12786,13 +13056,13 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="D54" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="E54" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -12818,13 +13088,13 @@
         <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="D55" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="E55" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="F55">
         <v>24</v>
@@ -12850,13 +13120,13 @@
         <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="D56" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="E56" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="F56">
         <v>24</v>
@@ -12882,13 +13152,13 @@
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="D57" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="E57" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="F57">
         <v>24</v>
@@ -12914,13 +13184,13 @@
         <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="D58" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="E58" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="F58">
         <v>24</v>
@@ -12946,13 +13216,13 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D59" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="E59" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -12978,13 +13248,13 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D60" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="E60" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="F60">
         <v>9.2</v>
@@ -13010,13 +13280,13 @@
         <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D61" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="E61" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="F61">
         <v>24</v>
@@ -13042,13 +13312,13 @@
         <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="F62" s="2">
         <v>1000</v>
@@ -13074,13 +13344,13 @@
         <v>49</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F63" s="2">
         <v>1000</v>
@@ -13106,13 +13376,13 @@
         <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="F64" s="2">
         <v>1000</v>
@@ -13138,13 +13408,13 @@
         <v>49</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="F65" s="2">
         <v>1000</v>
@@ -13170,13 +13440,13 @@
         <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="F66" s="2">
         <v>1000</v>
@@ -13202,13 +13472,13 @@
         <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="F67" s="2">
         <v>1000</v>
@@ -13234,13 +13504,13 @@
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="F68" s="2">
         <v>1000</v>
@@ -13285,183 +13555,183 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="C2" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="D2" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="E2" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="F2" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="G2" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="H2" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
       <c r="I2" t="s">
         <v>111</v>
       </c>
       <c r="J2" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="K2" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
       <c r="L2" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="M2" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="N2" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="O2" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="P2" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="Q2" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="R2" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="S2" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="T2" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
       <c r="U2" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="V2" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="W2" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="X2" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="Y2" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="Z2" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="AA2" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="AB2" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="AC2" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>654</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>655</v>
+      </c>
+      <c r="AG2" t="s">
         <v>627</v>
       </c>
-      <c r="AD2" t="s">
-        <v>628</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>629</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>630</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>602</v>
-      </c>
       <c r="AH2" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="AI2" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="AJ2" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
       <c r="AK2" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
       <c r="AL2" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="AM2" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
       <c r="AN2" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
       <c r="AO2" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="AP2" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
       <c r="AQ2" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
       <c r="AR2" t="s">
-        <v>637</v>
+        <v>662</v>
       </c>
       <c r="AS2" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
       <c r="AT2" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
       <c r="AU2" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="AV2" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
       <c r="AW2" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
       <c r="AX2" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="AY2" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="AZ2" t="s">
-        <v>641</v>
+        <v>666</v>
       </c>
       <c r="BA2" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="5:36">
       <c r="E3" t="s">
-        <v>643</v>
+        <v>668</v>
       </c>
       <c r="H3" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="I3" t="s">
-        <v>645</v>
+        <v>670</v>
       </c>
       <c r="K3" t="s">
-        <v>646</v>
+        <v>671</v>
       </c>
       <c r="L3" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
       <c r="P3" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="AI3" t="s">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="AJ3">
         <v>7</v>
@@ -13469,63 +13739,63 @@
     </row>
     <row r="4" spans="5:39">
       <c r="E4" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="H4" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="I4" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="K4" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
       <c r="L4" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="P4" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
       <c r="AI4" t="s">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="AJ4">
         <v>7</v>
       </c>
       <c r="AL4" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="AM4" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
       <c r="B10" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="C10" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="D10" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>663</v>
+        <v>688</v>
       </c>
       <c r="B14">
         <v>56122</v>
@@ -13533,7 +13803,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="B15">
         <v>56121</v>
@@ -13541,7 +13811,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="B16">
         <v>56306</v>
@@ -13549,167 +13819,167 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="B20" t="s">
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="C20" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
       <c r="C21" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>669</v>
+        <v>694</v>
       </c>
       <c r="C22" t="s">
-        <v>670</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="B23" t="s">
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="C23" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
       <c r="C24" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="C25" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>669</v>
+        <v>694</v>
       </c>
       <c r="C26" t="s">
-        <v>670</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="B27" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
       <c r="C27" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="C28" t="s">
-        <v>674</v>
+        <v>699</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="C29" t="s">
-        <v>676</v>
+        <v>701</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>677</v>
+        <v>702</v>
       </c>
       <c r="C30" t="s">
-        <v>678</v>
+        <v>703</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="C31" t="s">
-        <v>670</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>680</v>
+        <v>705</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>681</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>682</v>
+        <v>707</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>685</v>
+        <v>710</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>686</v>
+        <v>711</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>687</v>
+        <v>712</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>689</v>
+        <v>714</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>690</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
